--- a/data/trans_bre/P21D_6_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P21D_6_R-Estudios-trans_bre.xlsx
@@ -555,7 +555,7 @@
         <v>1.764209822936996</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>4.480907019949428</v>
+        <v>4.480907019949429</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2576193670089438</v>
+        <v>0.4022790641038147</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.074897260292107</v>
+        <v>3.107750883082508</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.661957668159889</v>
+        <v>0.6619576681598888</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>1.074308344684001</v>
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2119710462369251</v>
+        <v>-0.1479076395206954</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3250303698893062</v>
+        <v>-0.3001749203179075</v>
       </c>
     </row>
     <row r="9">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.50693359441713</v>
+        <v>1.538698091850967</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>6.835364125117544</v>
+        <v>6.799073841654408</v>
       </c>
     </row>
     <row r="10">
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.848693945764752</v>
+        <v>-1.589560364312589</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1473142932017851</v>
+        <v>0.1473277179826069</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.6843319131755992</v>
+        <v>0.6843319131755994</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>1.235547333685259</v>
@@ -696,10 +696,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06444309731491839</v>
+        <v>0.08797238716656168</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06336539851784949</v>
+        <v>0.01287449496266739</v>
       </c>
     </row>
     <row r="15">
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.266124303396369</v>
+        <v>1.315543571011092</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.635719939172088</v>
+        <v>4.725131714012196</v>
       </c>
     </row>
     <row r="16">
